--- a/Rail/pcb1_12V_XL_BOM_JLCSMT.xlsx
+++ b/Rail/pcb1_12V_XL_BOM_JLCSMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms\ISOBUS_Hardware\Rail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC9D4D-F6BD-45C4-A851-724817D50201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7715D6-D391-4765-980B-4137762EC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5565" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
